--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_StateFundGroupProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_StateFundGroupProfile_Regression_001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875C286-F6A9-4F48-9929-7806E5C13868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4D19B-3336-4C59-8A50-8D0ED7375E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
